--- a/FF_FPROS_STATS.xlsx
+++ b/FF_FPROS_STATS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michael/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barra\OneDrive\Desktop\Fantasy Football\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{5D7F792E-1123-5548-A34C-9E0A56A0C77E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171FD3B9-75C3-42DE-8BE7-D41B9EB8F063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="16660" xr2:uid="{33D40E8B-FC0E-AB4B-B989-7668E7ABD0B1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{33D40E8B-FC0E-AB4B-B989-7668E7ABD0B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Stats" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -2671,11 +2671,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2841,10 +2842,10 @@
                   <c:v>Saquon Barkley</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Derrick Henry</c:v>
+                  <c:v>Christian McCaffrey</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Christian McCaffrey</c:v>
+                  <c:v>Derrick Henry</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>De'Von Achane</c:v>
@@ -2856,13 +2857,13 @@
                   <c:v>Ashton Jeanty</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>Kyren Williams</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Jonathan Taylor</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>Bucky Irving</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Kyren Williams</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>Chase Brown</c:v>
@@ -2871,10 +2872,10 @@
                   <c:v>James Cook</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Breece Hall</c:v>
+                  <c:v>Alvin Kamara</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Alvin Kamara</c:v>
+                  <c:v>Breece Hall</c:v>
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>James Conner</c:v>
@@ -2886,22 +2887,22 @@
                   <c:v>Omarion Hampton</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>Chuba Hubbard</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>D'Andre Swift</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>Aaron Jones Sr.</c:v>
                 </c:pt>
-                <c:pt idx="19">
-                  <c:v>Chuba Hubbard</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Joe Mixon</c:v>
-                </c:pt>
                 <c:pt idx="21">
-                  <c:v>D'Andre Swift</c:v>
+                  <c:v>David Montgomery</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>David Montgomery</c:v>
+                  <c:v>Tony Pollard</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Tony Pollard</c:v>
+                  <c:v>TreVeyon Henderson</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2922,67 +2923,67 @@
                   <c:v>17.6875</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.5</c:v>
+                  <c:v>16.3125</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.4375</c:v>
+                  <c:v>16.0625</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.625</c:v>
+                  <c:v>15.5625</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.5</c:v>
+                  <c:v>15.3125</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>14.8125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.625</c:v>
+                  <c:v>14.3125</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>14.4375</c:v>
+                  <c:v>14.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>14.3125</c:v>
+                  <c:v>14.0625</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>13.6875</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13.625</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13.1875</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>13</c:v>
+                  <c:v>12.6875</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>12.9375</c:v>
+                  <c:v>12.6875</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12.6875</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>11.9375</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.9375</c:v>
+                  <c:v>11.75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>11.75</c:v>
+                  <c:v>11.5625</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>11.6875</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>11.5625</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>11</c:v>
+                  <c:v>10.875</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>10.875</c:v>
+                  <c:v>10.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3769,12 +3770,12 @@
   <autoFilter ref="A1:L332" xr:uid="{083A08AF-458F-CF44-9C20-F102F29C1219}">
     <filterColumn colId="4">
       <filters>
-        <filter val="RB"/>
+        <filter val="DS"/>
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A121:L324">
-    <sortCondition ref="G1:G332"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:L330">
+    <sortCondition ref="J1:J332"/>
   </sortState>
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{3809D3AF-1BA3-8041-9F8B-081D0AED7C4A}" name="Rank"/>
@@ -4115,21 +4116,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A567708B-EF45-2047-BB9E-8AF493F56FB2}">
-  <dimension ref="A1:L332"/>
+  <dimension ref="A1:O332"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A204" zoomScale="114" workbookViewId="0">
-      <selection activeCell="N256" sqref="N256"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0">
+      <selection activeCell="D337" sqref="D337"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.1640625" customWidth="1"/>
+    <col min="2" max="2" width="21.125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="11" max="11" width="7.83203125" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.875" customWidth="1"/>
+    <col min="12" max="12" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>17.875</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4221,7 +4222,7 @@
         <v>9</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E66" si="0">LEFT(F3,IF(LEFT(F3,1)="K",1,2))</f>
+        <f>LEFT(F3,IF(LEFT(F3,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F3" t="s">
@@ -4247,7 +4248,7 @@
         <v>17.6875</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4261,7 +4262,7 @@
         <v>5</v>
       </c>
       <c r="E4" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F4,IF(LEFT(F4,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F4" t="s">
@@ -4287,7 +4288,7 @@
         <v>17.9375</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>8</v>
       </c>
       <c r="E5" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F5,IF(LEFT(F5,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F5" t="s">
@@ -4327,7 +4328,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4341,7 +4342,7 @@
         <v>6</v>
       </c>
       <c r="E6" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F6,IF(LEFT(F6,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F6" t="s">
@@ -4367,7 +4368,7 @@
         <v>15.5625</v>
       </c>
     </row>
-    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4381,7 +4382,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F7,IF(LEFT(F7,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F7" t="s">
@@ -4407,7 +4408,7 @@
         <v>14.9375</v>
       </c>
     </row>
-    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4421,7 +4422,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F8,IF(LEFT(F8,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F8" t="s">
@@ -4447,7 +4448,7 @@
         <v>14.6875</v>
       </c>
     </row>
-    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4461,7 +4462,7 @@
         <v>8</v>
       </c>
       <c r="E9" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F9,IF(LEFT(F9,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F9" t="s">
@@ -4487,7 +4488,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>7</v>
       </c>
       <c r="E10" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F10,IF(LEFT(F10,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F10" t="s">
@@ -4520,14 +4521,14 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="K10">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="L10" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>16.0625</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4541,7 +4542,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F11,IF(LEFT(F11,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F11" t="s">
@@ -4560,14 +4561,14 @@
         <v>10</v>
       </c>
       <c r="K11">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="L11" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>16.4375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>16.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4581,7 +4582,7 @@
         <v>8</v>
       </c>
       <c r="E12" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F12,IF(LEFT(F12,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F12" t="s">
@@ -4607,7 +4608,7 @@
         <v>14.8125</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4621,7 +4622,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F13,IF(LEFT(F13,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F13" t="s">
@@ -4647,7 +4648,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4661,7 +4662,7 @@
         <v>6</v>
       </c>
       <c r="E14" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F14,IF(LEFT(F14,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F14" t="s">
@@ -4687,7 +4688,7 @@
         <v>13.9375</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>8</v>
       </c>
       <c r="E15" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F15,IF(LEFT(F15,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F15" t="s">
@@ -4727,7 +4728,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4741,7 +4742,7 @@
         <v>12</v>
       </c>
       <c r="E16" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F16,IF(LEFT(F16,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F16" t="s">
@@ -4760,14 +4761,14 @@
         <v>14.7</v>
       </c>
       <c r="K16">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="L16" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>15.625</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>15.5625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4781,7 +4782,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F17,IF(LEFT(F17,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F17" t="s">
@@ -4800,14 +4801,14 @@
         <v>17</v>
       </c>
       <c r="K17">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L17" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>15.3125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4821,7 +4822,7 @@
         <v>8</v>
       </c>
       <c r="E18" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F18,IF(LEFT(F18,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F18" t="s">
@@ -4847,7 +4848,7 @@
         <v>11.875</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4861,7 +4862,7 @@
         <v>9</v>
       </c>
       <c r="E19" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F19,IF(LEFT(F19,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F19" t="s">
@@ -4880,14 +4881,14 @@
         <v>18.7</v>
       </c>
       <c r="K19">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="L19" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>14.4375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4901,7 +4902,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F20,IF(LEFT(F20,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F20" t="s">
@@ -4920,14 +4921,14 @@
         <v>19.3</v>
       </c>
       <c r="K20">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="L20" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>14.625</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4941,7 +4942,7 @@
         <v>5</v>
       </c>
       <c r="E21" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F21,IF(LEFT(F21,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F21" t="s">
@@ -4967,7 +4968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4981,7 +4982,7 @@
         <v>9</v>
       </c>
       <c r="E22" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F22,IF(LEFT(F22,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F22" t="s">
@@ -5007,7 +5008,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5021,7 +5022,7 @@
         <v>7</v>
       </c>
       <c r="E23" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F23,IF(LEFT(F23,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F23" t="s">
@@ -5047,7 +5048,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5061,7 +5062,7 @@
         <v>7</v>
       </c>
       <c r="E24" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F24,IF(LEFT(F24,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F24" t="s">
@@ -5080,14 +5081,14 @@
         <v>23</v>
       </c>
       <c r="K24">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L24" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+        <v>23.375</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5101,7 +5102,7 @@
         <v>10</v>
       </c>
       <c r="E25" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F25,IF(LEFT(F25,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F25" t="s">
@@ -5127,7 +5128,7 @@
         <v>13.6875</v>
       </c>
     </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5141,7 +5142,7 @@
         <v>12</v>
       </c>
       <c r="E26" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F26,IF(LEFT(F26,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F26" t="s">
@@ -5160,14 +5161,14 @@
         <v>24.3</v>
       </c>
       <c r="K26">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L26" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>13.5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+        <v>13.0625</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5181,7 +5182,7 @@
         <v>8</v>
       </c>
       <c r="E27" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F27,IF(LEFT(F27,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F27" t="s">
@@ -5207,7 +5208,7 @@
         <v>14.3125</v>
       </c>
     </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5221,7 +5222,7 @@
         <v>8</v>
       </c>
       <c r="E28" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F28,IF(LEFT(F28,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F28" t="s">
@@ -5247,7 +5248,7 @@
         <v>11.3125</v>
       </c>
     </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5261,7 +5262,7 @@
         <v>12</v>
       </c>
       <c r="E29" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F29,IF(LEFT(F29,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F29" t="s">
@@ -5287,7 +5288,7 @@
         <v>22.1875</v>
       </c>
     </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5301,7 +5302,7 @@
         <v>12</v>
       </c>
       <c r="E30" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F30,IF(LEFT(F30,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F30" t="s">
@@ -5327,7 +5328,7 @@
         <v>12.9375</v>
       </c>
     </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5341,7 +5342,7 @@
         <v>8</v>
       </c>
       <c r="E31" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F31,IF(LEFT(F31,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F31" t="s">
@@ -5367,7 +5368,7 @@
         <v>12.125</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5381,7 +5382,7 @@
         <v>9</v>
       </c>
       <c r="E32" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F32,IF(LEFT(F32,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F32" t="s">
@@ -5400,14 +5401,14 @@
         <v>31.7</v>
       </c>
       <c r="K32">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="L32" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>13.1875</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>12.6875</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5421,7 +5422,7 @@
         <v>10</v>
       </c>
       <c r="E33" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F33,IF(LEFT(F33,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F33" t="s">
@@ -5447,7 +5448,7 @@
         <v>12.6875</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>7</v>
       </c>
       <c r="E34" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F34,IF(LEFT(F34,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F34" t="s">
@@ -5480,14 +5481,14 @@
         <v>32.299999999999997</v>
       </c>
       <c r="K34">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L34" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>13.625</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5501,7 +5502,7 @@
         <v>9</v>
       </c>
       <c r="E35" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F35,IF(LEFT(F35,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F35" t="s">
@@ -5527,7 +5528,7 @@
         <v>11.625</v>
       </c>
     </row>
-    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5541,7 +5542,7 @@
         <v>9</v>
       </c>
       <c r="E36" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F36,IF(LEFT(F36,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F36" t="s">
@@ -5567,7 +5568,7 @@
         <v>22.3125</v>
       </c>
     </row>
-    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5581,7 +5582,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F37,IF(LEFT(F37,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F37" t="s">
@@ -5607,7 +5608,7 @@
         <v>11.25</v>
       </c>
     </row>
-    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>10</v>
       </c>
       <c r="E38" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F38,IF(LEFT(F38,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F38" t="s">
@@ -5640,14 +5641,14 @@
         <v>37.700000000000003</v>
       </c>
       <c r="K38">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="L38" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>21.3125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>12</v>
       </c>
       <c r="E39" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F39,IF(LEFT(F39,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F39" t="s">
@@ -5680,14 +5681,14 @@
         <v>38.299999999999997</v>
       </c>
       <c r="K39">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L39" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>12.5625</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>12.1875</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5701,7 +5702,7 @@
         <v>8</v>
       </c>
       <c r="E40" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F40,IF(LEFT(F40,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F40" t="s">
@@ -5727,7 +5728,7 @@
         <v>12.125</v>
       </c>
     </row>
-    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5741,7 +5742,7 @@
         <v>8</v>
       </c>
       <c r="E41" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F41,IF(LEFT(F41,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F41" t="s">
@@ -5767,7 +5768,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5781,7 +5782,7 @@
         <v>11</v>
       </c>
       <c r="E42" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F42,IF(LEFT(F42,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F42" t="s">
@@ -5807,7 +5808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>9</v>
       </c>
       <c r="E43" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F43,IF(LEFT(F43,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F43" t="s">
@@ -5840,14 +5841,14 @@
         <v>40</v>
       </c>
       <c r="K43">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="L43" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>12.8125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12.6875</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5861,7 +5862,7 @@
         <v>12</v>
       </c>
       <c r="E44" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F44,IF(LEFT(F44,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F44" t="s">
@@ -5887,7 +5888,7 @@
         <v>11.9375</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>8</v>
       </c>
       <c r="E45" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F45,IF(LEFT(F45,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F45" t="s">
@@ -5920,14 +5921,14 @@
         <v>43</v>
       </c>
       <c r="K45">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="L45" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>12.6875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5941,7 +5942,7 @@
         <v>14</v>
       </c>
       <c r="E46" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F46,IF(LEFT(F46,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F46" t="s">
@@ -5967,7 +5968,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5981,7 +5982,7 @@
         <v>8</v>
       </c>
       <c r="E47" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F47,IF(LEFT(F47,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F47" t="s">
@@ -6000,14 +6001,14 @@
         <v>48.3</v>
       </c>
       <c r="K47">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L47" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>12.9375</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>12.6875</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6021,7 +6022,7 @@
         <v>10</v>
       </c>
       <c r="E48" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F48,IF(LEFT(F48,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F48" t="s">
@@ -6047,7 +6048,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6061,7 +6062,7 @@
         <v>6</v>
       </c>
       <c r="E49" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F49,IF(LEFT(F49,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F49" t="s">
@@ -6080,14 +6081,14 @@
         <v>49</v>
       </c>
       <c r="K49">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="L49" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>11.6875</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.6875</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6101,7 +6102,7 @@
         <v>5</v>
       </c>
       <c r="E50" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F50,IF(LEFT(F50,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F50" t="s">
@@ -6127,7 +6128,7 @@
         <v>11.3125</v>
       </c>
     </row>
-    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6141,7 +6142,7 @@
         <v>5</v>
       </c>
       <c r="E51" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F51,IF(LEFT(F51,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F51" t="s">
@@ -6167,7 +6168,7 @@
         <v>11.875</v>
       </c>
     </row>
-    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6181,7 +6182,7 @@
         <v>12</v>
       </c>
       <c r="E52" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F52,IF(LEFT(F52,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F52" t="s">
@@ -6207,7 +6208,7 @@
         <v>11.3125</v>
       </c>
     </row>
-    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6221,7 +6222,7 @@
         <v>8</v>
       </c>
       <c r="E53" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F53,IF(LEFT(F53,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F53" t="s">
@@ -6247,7 +6248,7 @@
         <v>9.375</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6261,7 +6262,7 @@
         <v>8</v>
       </c>
       <c r="E54" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F54,IF(LEFT(F54,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F54" t="s">
@@ -6287,7 +6288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6301,7 +6302,7 @@
         <v>10</v>
       </c>
       <c r="E55" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F55,IF(LEFT(F55,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F55" t="s">
@@ -6327,7 +6328,7 @@
         <v>20.25</v>
       </c>
     </row>
-    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6341,7 +6342,7 @@
         <v>9</v>
       </c>
       <c r="E56" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F56,IF(LEFT(F56,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F56" t="s">
@@ -6367,7 +6368,7 @@
         <v>10.9375</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6381,7 +6382,7 @@
         <v>12</v>
       </c>
       <c r="E57" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F57,IF(LEFT(F57,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F57" t="s">
@@ -6407,7 +6408,7 @@
         <v>9.0625</v>
       </c>
     </row>
-    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6421,7 +6422,7 @@
         <v>7</v>
       </c>
       <c r="E58" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F58,IF(LEFT(F58,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F58" t="s">
@@ -6447,7 +6448,7 @@
         <v>11.375</v>
       </c>
     </row>
-    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6461,7 +6462,7 @@
         <v>8</v>
       </c>
       <c r="E59" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F59,IF(LEFT(F59,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F59" t="s">
@@ -6487,7 +6488,7 @@
         <v>10.6875</v>
       </c>
     </row>
-    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6501,7 +6502,7 @@
         <v>10</v>
       </c>
       <c r="E60" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F60,IF(LEFT(F60,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F60" t="s">
@@ -6527,7 +6528,7 @@
         <v>10.8125</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6541,7 +6542,7 @@
         <v>14</v>
       </c>
       <c r="E61" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F61,IF(LEFT(F61,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F61" t="s">
@@ -6567,7 +6568,7 @@
         <v>10.375</v>
       </c>
     </row>
-    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6581,7 +6582,7 @@
         <v>6</v>
       </c>
       <c r="E62" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F62,IF(LEFT(F62,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F62" t="s">
@@ -6607,7 +6608,7 @@
         <v>8.375</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6621,7 +6622,7 @@
         <v>10</v>
       </c>
       <c r="E63" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F63,IF(LEFT(F63,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F63" t="s">
@@ -6647,7 +6648,7 @@
         <v>10.0625</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6661,7 +6662,7 @@
         <v>5</v>
       </c>
       <c r="E64" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F64,IF(LEFT(F64,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F64" t="s">
@@ -6687,7 +6688,7 @@
         <v>11.5625</v>
       </c>
     </row>
-    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6701,7 +6702,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F65,IF(LEFT(F65,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F65" t="s">
@@ -6727,7 +6728,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>6</v>
       </c>
       <c r="E66" t="str">
-        <f t="shared" si="0"/>
+        <f>LEFT(F66,IF(LEFT(F66,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F66" t="s">
@@ -6760,14 +6761,14 @@
         <v>65.3</v>
       </c>
       <c r="K66">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="L66" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>11.9375</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6781,7 +6782,7 @@
         <v>9</v>
       </c>
       <c r="E67" t="str">
-        <f t="shared" ref="E67:E130" si="1">LEFT(F67,IF(LEFT(F67,1)="K",1,2))</f>
+        <f>LEFT(F67,IF(LEFT(F67,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F67" t="s">
@@ -6800,14 +6801,14 @@
         <v>66.3</v>
       </c>
       <c r="K67">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="L67" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>20.0625</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>19.9375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6821,7 +6822,7 @@
         <v>10</v>
       </c>
       <c r="E68" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F68,IF(LEFT(F68,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F68" t="s">
@@ -6847,7 +6848,7 @@
         <v>9.0625</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6861,7 +6862,7 @@
         <v>10</v>
       </c>
       <c r="E69" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F69,IF(LEFT(F69,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F69" t="s">
@@ -6887,7 +6888,7 @@
         <v>10.875</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6901,7 +6902,7 @@
         <v>5</v>
       </c>
       <c r="E70" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F70,IF(LEFT(F70,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F70" t="s">
@@ -6920,14 +6921,14 @@
         <v>68</v>
       </c>
       <c r="K70">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="L70" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>10.125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.5625</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6941,7 +6942,7 @@
         <v>10</v>
       </c>
       <c r="E71" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F71,IF(LEFT(F71,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F71" t="s">
@@ -6967,7 +6968,7 @@
         <v>10.4375</v>
       </c>
     </row>
-    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6981,7 +6982,7 @@
         <v>8</v>
       </c>
       <c r="E72" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F72,IF(LEFT(F72,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F72" t="s">
@@ -7007,7 +7008,7 @@
         <v>9.6875</v>
       </c>
     </row>
-    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7021,7 +7022,7 @@
         <v>12</v>
       </c>
       <c r="E73" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F73,IF(LEFT(F73,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F73" t="s">
@@ -7047,7 +7048,7 @@
         <v>19.25</v>
       </c>
     </row>
-    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -7061,7 +7062,7 @@
         <v>10</v>
       </c>
       <c r="E74" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F74,IF(LEFT(F74,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F74" t="s">
@@ -7087,7 +7088,7 @@
         <v>10.9375</v>
       </c>
     </row>
-    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -7101,7 +7102,7 @@
         <v>9</v>
       </c>
       <c r="E75" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F75,IF(LEFT(F75,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F75" t="s">
@@ -7120,14 +7121,14 @@
         <v>75.3</v>
       </c>
       <c r="K75">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="L75" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>10.0625</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.0625</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -7141,7 +7142,7 @@
         <v>12</v>
       </c>
       <c r="E76" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F76,IF(LEFT(F76,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F76" t="s">
@@ -7167,7 +7168,7 @@
         <v>10.25</v>
       </c>
     </row>
-    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -7181,7 +7182,7 @@
         <v>11</v>
       </c>
       <c r="E77" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F77,IF(LEFT(F77,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F77" t="s">
@@ -7207,7 +7208,7 @@
         <v>9.5625</v>
       </c>
     </row>
-    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -7221,7 +7222,7 @@
         <v>9</v>
       </c>
       <c r="E78" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F78,IF(LEFT(F78,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F78" t="s">
@@ -7247,7 +7248,7 @@
         <v>10.6875</v>
       </c>
     </row>
-    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -7261,7 +7262,7 @@
         <v>7</v>
       </c>
       <c r="E79" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F79,IF(LEFT(F79,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F79" t="s">
@@ -7280,14 +7281,14 @@
         <v>78.7</v>
       </c>
       <c r="K79">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L79" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>9.125</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7301,7 +7302,7 @@
         <v>6</v>
       </c>
       <c r="E80" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F80,IF(LEFT(F80,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F80" t="s">
@@ -7327,7 +7328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7341,7 +7342,7 @@
         <v>12</v>
       </c>
       <c r="E81" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F81,IF(LEFT(F81,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F81" t="s">
@@ -7367,7 +7368,7 @@
         <v>10.125</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7381,7 +7382,7 @@
         <v>9</v>
       </c>
       <c r="E82" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F82,IF(LEFT(F82,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F82" t="s">
@@ -7400,14 +7401,14 @@
         <v>82</v>
       </c>
       <c r="K82">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="L82" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.1875</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7421,7 +7422,7 @@
         <v>14</v>
       </c>
       <c r="E83" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F83,IF(LEFT(F83,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F83" t="s">
@@ -7440,14 +7441,14 @@
         <v>82.3</v>
       </c>
       <c r="K83">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="L83" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>9.9375</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.6875</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7461,7 +7462,7 @@
         <v>5</v>
       </c>
       <c r="E84" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F84,IF(LEFT(F84,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F84" t="s">
@@ -7480,14 +7481,14 @@
         <v>86</v>
       </c>
       <c r="K84">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="L84" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>9.625</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7501,7 +7502,7 @@
         <v>5</v>
       </c>
       <c r="E85" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F85,IF(LEFT(F85,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F85" t="s">
@@ -7527,7 +7528,7 @@
         <v>8.9375</v>
       </c>
     </row>
-    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7541,7 +7542,7 @@
         <v>12</v>
       </c>
       <c r="E86" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F86,IF(LEFT(F86,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F86" t="s">
@@ -7567,7 +7568,7 @@
         <v>7.3125</v>
       </c>
     </row>
-    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7581,7 +7582,7 @@
         <v>12</v>
       </c>
       <c r="E87" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F87,IF(LEFT(F87,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F87" t="s">
@@ -7607,7 +7608,7 @@
         <v>10.125</v>
       </c>
     </row>
-    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7621,7 +7622,7 @@
         <v>8</v>
       </c>
       <c r="E88" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F88,IF(LEFT(F88,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F88" t="s">
@@ -7647,7 +7648,7 @@
         <v>19.6875</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7661,7 +7662,7 @@
         <v>8</v>
       </c>
       <c r="E89" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F89,IF(LEFT(F89,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F89" t="s">
@@ -7680,14 +7681,14 @@
         <v>93.3</v>
       </c>
       <c r="K89">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L89" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7701,7 +7702,7 @@
         <v>9</v>
       </c>
       <c r="E90" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F90,IF(LEFT(F90,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F90" t="s">
@@ -7727,7 +7728,7 @@
         <v>8.625</v>
       </c>
     </row>
-    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7741,7 +7742,7 @@
         <v>8</v>
       </c>
       <c r="E91" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F91,IF(LEFT(F91,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F91" t="s">
@@ -7767,7 +7768,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7781,7 +7782,7 @@
         <v>8</v>
       </c>
       <c r="E92" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F92,IF(LEFT(F92,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F92" t="s">
@@ -7800,14 +7801,14 @@
         <v>96.3</v>
       </c>
       <c r="K92">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="L92" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>18.375</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>17.9375</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7821,7 +7822,7 @@
         <v>14</v>
       </c>
       <c r="E93" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F93,IF(LEFT(F93,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F93" t="s">
@@ -7847,7 +7848,7 @@
         <v>9.25</v>
       </c>
     </row>
-    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7861,7 +7862,7 @@
         <v>14</v>
       </c>
       <c r="E94" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F94,IF(LEFT(F94,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F94" t="s">
@@ -7880,14 +7881,14 @@
         <v>98.3</v>
       </c>
       <c r="K94">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L94" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>9.875</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>9.625</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7901,7 +7902,7 @@
         <v>7</v>
       </c>
       <c r="E95" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F95,IF(LEFT(F95,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F95" t="s">
@@ -7927,7 +7928,7 @@
         <v>8.8125</v>
       </c>
     </row>
-    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7941,7 +7942,7 @@
         <v>8</v>
       </c>
       <c r="E96" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F96,IF(LEFT(F96,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F96" t="s">
@@ -7967,7 +7968,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7981,7 +7982,7 @@
         <v>5</v>
       </c>
       <c r="E97" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F97,IF(LEFT(F97,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F97" t="s">
@@ -8000,14 +8001,14 @@
         <v>101.3</v>
       </c>
       <c r="K97">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="L97" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>9.6875</v>
-      </c>
-    </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -8021,7 +8022,7 @@
         <v>12</v>
       </c>
       <c r="E98" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F98,IF(LEFT(F98,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F98" t="s">
@@ -8040,14 +8041,14 @@
         <v>103</v>
       </c>
       <c r="K98">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="L98" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.9375</v>
-      </c>
-    </row>
-    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -8061,7 +8062,7 @@
         <v>9</v>
       </c>
       <c r="E99" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F99,IF(LEFT(F99,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F99" t="s">
@@ -8087,7 +8088,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -8101,7 +8102,7 @@
         <v>14</v>
       </c>
       <c r="E100" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F100,IF(LEFT(F100,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F100" t="s">
@@ -8127,7 +8128,7 @@
         <v>19.3125</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
@@ -8141,7 +8142,7 @@
         <v>14</v>
       </c>
       <c r="E101" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F101,IF(LEFT(F101,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F101" t="s">
@@ -8160,14 +8161,14 @@
         <v>105</v>
       </c>
       <c r="K101">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="L101" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.5625</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.6875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>101</v>
       </c>
@@ -8181,7 +8182,7 @@
         <v>6</v>
       </c>
       <c r="E102" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F102,IF(LEFT(F102,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F102" t="s">
@@ -8207,7 +8208,7 @@
         <v>6.8125</v>
       </c>
     </row>
-    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>102</v>
       </c>
@@ -8221,7 +8222,7 @@
         <v>5</v>
       </c>
       <c r="E103" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F103,IF(LEFT(F103,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F103" t="s">
@@ -8247,7 +8248,7 @@
         <v>7.375</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>103</v>
       </c>
@@ -8261,7 +8262,7 @@
         <v>8</v>
       </c>
       <c r="E104" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F104,IF(LEFT(F104,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F104" t="s">
@@ -8287,7 +8288,7 @@
         <v>7.375</v>
       </c>
     </row>
-    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>104</v>
       </c>
@@ -8301,7 +8302,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F105,IF(LEFT(F105,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F105" t="s">
@@ -8327,7 +8328,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>105</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>12</v>
       </c>
       <c r="E106" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F106,IF(LEFT(F106,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F106" t="s">
@@ -8367,7 +8368,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>106</v>
       </c>
@@ -8381,7 +8382,7 @@
         <v>10</v>
       </c>
       <c r="E107" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F107,IF(LEFT(F107,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F107" t="s">
@@ -8407,7 +8408,7 @@
         <v>18.0625</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>107</v>
       </c>
@@ -8421,7 +8422,7 @@
         <v>10</v>
       </c>
       <c r="E108" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F108,IF(LEFT(F108,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F108" t="s">
@@ -8440,14 +8441,14 @@
         <v>108.7</v>
       </c>
       <c r="K108">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="L108" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>8.9375</v>
-      </c>
-    </row>
-    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.0625</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>108</v>
       </c>
@@ -8461,7 +8462,7 @@
         <v>5</v>
       </c>
       <c r="E109" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F109,IF(LEFT(F109,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F109" t="s">
@@ -8487,7 +8488,7 @@
         <v>17.875</v>
       </c>
     </row>
-    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>109</v>
       </c>
@@ -8501,7 +8502,7 @@
         <v>5</v>
       </c>
       <c r="E110" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F110,IF(LEFT(F110,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F110" t="s">
@@ -8527,7 +8528,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>110</v>
       </c>
@@ -8541,7 +8542,7 @@
         <v>5</v>
       </c>
       <c r="E111" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F111,IF(LEFT(F111,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F111" t="s">
@@ -8567,7 +8568,7 @@
         <v>9.3125</v>
       </c>
     </row>
-    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>111</v>
       </c>
@@ -8581,7 +8582,7 @@
         <v>11</v>
       </c>
       <c r="E112" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F112,IF(LEFT(F112,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F112" t="s">
@@ -8607,7 +8608,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>112</v>
       </c>
@@ -8621,7 +8622,7 @@
         <v>14</v>
       </c>
       <c r="E113" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F113,IF(LEFT(F113,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F113" t="s">
@@ -8640,14 +8641,14 @@
         <v>114.3</v>
       </c>
       <c r="K113">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L113" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.9375</v>
-      </c>
-    </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>113</v>
       </c>
@@ -8661,7 +8662,7 @@
         <v>12</v>
       </c>
       <c r="E114" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F114,IF(LEFT(F114,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F114" t="s">
@@ -8680,14 +8681,14 @@
         <v>119</v>
       </c>
       <c r="K114">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="L114" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>8.3125</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.1875</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8701,7 +8702,7 @@
         <v>11</v>
       </c>
       <c r="E115" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F115,IF(LEFT(F115,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F115" t="s">
@@ -8727,7 +8728,7 @@
         <v>8.1875</v>
       </c>
     </row>
-    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8741,7 +8742,7 @@
         <v>14</v>
       </c>
       <c r="E116" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F116,IF(LEFT(F116,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F116" t="s">
@@ -8767,7 +8768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8781,7 +8782,7 @@
         <v>9</v>
       </c>
       <c r="E117" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F117,IF(LEFT(F117,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F117" t="s">
@@ -8807,7 +8808,7 @@
         <v>5.5625</v>
       </c>
     </row>
-    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8821,7 +8822,7 @@
         <v>7</v>
       </c>
       <c r="E118" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F118,IF(LEFT(F118,1)="K",1,2))</f>
         <v>TE</v>
       </c>
       <c r="F118" t="s">
@@ -8847,7 +8848,7 @@
         <v>6.6875</v>
       </c>
     </row>
-    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>5</v>
       </c>
       <c r="E119" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F119,IF(LEFT(F119,1)="K",1,2))</f>
         <v>QB</v>
       </c>
       <c r="F119" t="s">
@@ -8880,14 +8881,14 @@
         <v>127.3</v>
       </c>
       <c r="K119">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="L119" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>17.4375</v>
-      </c>
-    </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+        <v>17.375</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8901,7 +8902,7 @@
         <v>10</v>
       </c>
       <c r="E120" t="str">
-        <f t="shared" si="1"/>
+        <f>LEFT(F120,IF(LEFT(F120,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F120" t="s">
@@ -8920,14 +8921,14 @@
         <v>127.7</v>
       </c>
       <c r="K120">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L120" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.1875</v>
-      </c>
-    </row>
-    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8967,7 +8968,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>121</v>
       </c>
@@ -9007,7 +9008,7 @@
         <v>17.375</v>
       </c>
     </row>
-    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>122</v>
       </c>
@@ -9047,7 +9048,7 @@
         <v>16.9375</v>
       </c>
     </row>
-    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>123</v>
       </c>
@@ -9087,7 +9088,7 @@
         <v>5.375</v>
       </c>
     </row>
-    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>124</v>
       </c>
@@ -9120,14 +9121,14 @@
         <v>129.30000000000001</v>
       </c>
       <c r="K125">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L125" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.375</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>125</v>
       </c>
@@ -9160,14 +9161,14 @@
         <v>132</v>
       </c>
       <c r="K126">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="L126" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>6.875</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.4375</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>126</v>
       </c>
@@ -9207,7 +9208,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>127</v>
       </c>
@@ -9247,7 +9248,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
@@ -9287,7 +9288,7 @@
         <v>8.9375</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
@@ -9320,14 +9321,14 @@
         <v>135</v>
       </c>
       <c r="K130">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="L130" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
@@ -9367,7 +9368,7 @@
         <v>18.0625</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
@@ -9407,7 +9408,7 @@
         <v>4.8125</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
@@ -9440,14 +9441,14 @@
         <v>139.30000000000001</v>
       </c>
       <c r="K133">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="L133" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>5.1875</v>
-      </c>
-    </row>
-    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.1875</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -9480,14 +9481,14 @@
         <v>141</v>
       </c>
       <c r="K134">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L134" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>8.9375</v>
-      </c>
-    </row>
-    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.5625</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
@@ -9527,7 +9528,7 @@
         <v>8.8125</v>
       </c>
     </row>
-    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -9560,14 +9561,14 @@
         <v>142</v>
       </c>
       <c r="K136">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L136" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>6.9375</v>
-      </c>
-    </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
@@ -9607,7 +9608,7 @@
         <v>5.1875</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
@@ -9640,14 +9641,14 @@
         <v>144.30000000000001</v>
       </c>
       <c r="K138">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L138" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>8.3125</v>
-      </c>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
@@ -9687,7 +9688,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -9727,7 +9728,7 @@
         <v>6.4375</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
@@ -9760,14 +9761,14 @@
         <v>145.69999999999999</v>
       </c>
       <c r="K141">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L141" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
@@ -9807,7 +9808,7 @@
         <v>6.1875</v>
       </c>
     </row>
-    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
@@ -9840,14 +9841,14 @@
         <v>148.30000000000001</v>
       </c>
       <c r="K143">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="L143" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.875</v>
-      </c>
-    </row>
-    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.875</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>8.875</v>
       </c>
     </row>
-    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>144</v>
       </c>
@@ -9927,7 +9928,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>145</v>
       </c>
@@ -9960,14 +9961,14 @@
         <v>151.30000000000001</v>
       </c>
       <c r="K146">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="L146" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>6.875</v>
-      </c>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>146</v>
       </c>
@@ -10007,7 +10008,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>147</v>
       </c>
@@ -10040,14 +10041,14 @@
         <v>151.69999999999999</v>
       </c>
       <c r="K148">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="L148" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>5.375</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.3125</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>148</v>
       </c>
@@ -10087,7 +10088,7 @@
         <v>15.9375</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>149</v>
       </c>
@@ -10127,7 +10128,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>150</v>
       </c>
@@ -10160,14 +10161,14 @@
         <v>155</v>
       </c>
       <c r="K151">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="L151" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>8.4375</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>151</v>
       </c>
@@ -10200,14 +10201,14 @@
         <v>156.30000000000001</v>
       </c>
       <c r="K152">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L152" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.125</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.0625</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>152</v>
       </c>
@@ -10247,7 +10248,7 @@
         <v>16.4375</v>
       </c>
     </row>
-    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>153</v>
       </c>
@@ -10287,7 +10288,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>154</v>
       </c>
@@ -10320,14 +10321,14 @@
         <v>158.30000000000001</v>
       </c>
       <c r="K155">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="L155" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>6.5625</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>155</v>
       </c>
@@ -10360,14 +10361,14 @@
         <v>159</v>
       </c>
       <c r="K156">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="L156" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.8125</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>156</v>
       </c>
@@ -10407,7 +10408,7 @@
         <v>16.4375</v>
       </c>
     </row>
-    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>157</v>
       </c>
@@ -10447,7 +10448,7 @@
         <v>15.8125</v>
       </c>
     </row>
-    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>158</v>
       </c>
@@ -10480,14 +10481,14 @@
         <v>161.30000000000001</v>
       </c>
       <c r="K159">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="L159" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>8.1875</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>159</v>
       </c>
@@ -10527,7 +10528,7 @@
         <v>8.875</v>
       </c>
     </row>
-    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>160</v>
       </c>
@@ -10560,14 +10561,14 @@
         <v>161.69999999999999</v>
       </c>
       <c r="K161">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L161" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>5.125</v>
-      </c>
-    </row>
-    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.0625</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>161</v>
       </c>
@@ -10607,7 +10608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>162</v>
       </c>
@@ -10647,7 +10648,7 @@
         <v>4.875</v>
       </c>
     </row>
-    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>163</v>
       </c>
@@ -10687,7 +10688,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>164</v>
       </c>
@@ -10727,7 +10728,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>165</v>
       </c>
@@ -10767,7 +10768,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>166</v>
       </c>
@@ -10807,7 +10808,7 @@
         <v>16.25</v>
       </c>
     </row>
-    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>167</v>
       </c>
@@ -10847,7 +10848,7 @@
         <v>14.8125</v>
       </c>
     </row>
-    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>168</v>
       </c>
@@ -10880,14 +10881,14 @@
         <v>165</v>
       </c>
       <c r="K169">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="L169" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>6.0625</v>
-      </c>
-    </row>
-    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>169</v>
       </c>
@@ -10920,14 +10921,14 @@
         <v>165.7</v>
       </c>
       <c r="K170">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="L170" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.375</v>
-      </c>
-    </row>
-    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.875</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>170</v>
       </c>
@@ -10967,7 +10968,7 @@
         <v>6.625</v>
       </c>
     </row>
-    <row r="172" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>180</v>
       </c>
@@ -11000,14 +11001,14 @@
         <v>176.3</v>
       </c>
       <c r="K172">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L172" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>6.4375</v>
-      </c>
-    </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>172</v>
       </c>
@@ -11047,7 +11048,7 @@
         <v>4.375</v>
       </c>
     </row>
-    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>173</v>
       </c>
@@ -11087,7 +11088,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>174</v>
       </c>
@@ -11127,7 +11128,7 @@
         <v>6.4375</v>
       </c>
     </row>
-    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>175</v>
       </c>
@@ -11167,7 +11168,7 @@
         <v>8.0625</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>176</v>
       </c>
@@ -11200,14 +11201,14 @@
         <v>170.3</v>
       </c>
       <c r="K177">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L177" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>5.625</v>
-      </c>
-    </row>
-    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>177</v>
       </c>
@@ -11247,7 +11248,7 @@
         <v>7.5625</v>
       </c>
     </row>
-    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>178</v>
       </c>
@@ -11287,47 +11288,44 @@
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="B180" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="C180" t="s">
-        <v>122</v>
+        <v>193</v>
       </c>
       <c r="D180">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E180" t="str">
         <f>LEFT(F180,IF(LEFT(F180,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F180" t="s">
-        <v>399</v>
-      </c>
-      <c r="G180">
-        <v>161</v>
+        <v>437</v>
       </c>
       <c r="H180">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="I180">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="J180">
-        <v>176</v>
+        <v>174.5</v>
       </c>
       <c r="K180">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L180" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.875</v>
-      </c>
-    </row>
-    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.9375</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>171</v>
       </c>
@@ -11367,7 +11365,7 @@
         <v>7.1875</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>181</v>
       </c>
@@ -11407,7 +11405,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>182</v>
       </c>
@@ -11447,7 +11445,7 @@
         <v>12.875</v>
       </c>
     </row>
-    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>183</v>
       </c>
@@ -11487,7 +11485,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>184</v>
       </c>
@@ -11527,7 +11525,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>185</v>
       </c>
@@ -11567,7 +11565,7 @@
         <v>6.25</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>186</v>
       </c>
@@ -11600,14 +11598,14 @@
         <v>184.7</v>
       </c>
       <c r="K187">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L187" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>188</v>
       </c>
@@ -11647,7 +11645,7 @@
         <v>6.5625</v>
       </c>
     </row>
-    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -11687,7 +11685,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>189</v>
       </c>
@@ -11727,7 +11725,7 @@
         <v>7.875</v>
       </c>
     </row>
-    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>190</v>
       </c>
@@ -11767,7 +11765,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>191</v>
       </c>
@@ -11807,7 +11805,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>192</v>
       </c>
@@ -11847,7 +11845,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>240</v>
       </c>
@@ -11884,7 +11882,7 @@
         <v>6.3125</v>
       </c>
     </row>
-    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>194</v>
       </c>
@@ -11924,7 +11922,7 @@
         <v>2.375</v>
       </c>
     </row>
-    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>195</v>
       </c>
@@ -11964,7 +11962,7 @@
         <v>6.4375</v>
       </c>
     </row>
-    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>196</v>
       </c>
@@ -12004,7 +12002,7 @@
         <v>6.4375</v>
       </c>
     </row>
-    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>197</v>
       </c>
@@ -12041,44 +12039,47 @@
         <v>7.8125</v>
       </c>
     </row>
-    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="B199" t="s">
-        <v>436</v>
+        <v>398</v>
       </c>
       <c r="C199" t="s">
-        <v>193</v>
+        <v>122</v>
       </c>
       <c r="D199">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E199" t="str">
         <f>LEFT(F199,IF(LEFT(F199,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F199" t="s">
-        <v>437</v>
+        <v>399</v>
+      </c>
+      <c r="G199">
+        <v>161</v>
       </c>
       <c r="H199">
+        <v>166</v>
+      </c>
+      <c r="I199">
+        <v>201</v>
+      </c>
+      <c r="J199">
         <v>176</v>
       </c>
-      <c r="I199">
-        <v>173</v>
-      </c>
-      <c r="J199">
-        <v>174.5</v>
-      </c>
       <c r="K199">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="L199" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>6.9375</v>
-      </c>
-    </row>
-    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.625</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>199</v>
       </c>
@@ -12115,7 +12116,7 @@
         <v>4.5625</v>
       </c>
     </row>
-    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>193</v>
       </c>
@@ -12155,7 +12156,7 @@
         <v>6.3125</v>
       </c>
     </row>
-    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>201</v>
       </c>
@@ -12195,7 +12196,7 @@
         <v>8.0625</v>
       </c>
     </row>
-    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>202</v>
       </c>
@@ -12225,14 +12226,14 @@
         <v>178</v>
       </c>
       <c r="K203">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="L203" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.375</v>
-      </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>203</v>
       </c>
@@ -12262,14 +12263,14 @@
         <v>178</v>
       </c>
       <c r="K204">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="L204" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>5.125</v>
-      </c>
-    </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>204</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>4.25</v>
       </c>
     </row>
-    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>205</v>
       </c>
@@ -12336,14 +12337,14 @@
         <v>183.5</v>
       </c>
       <c r="K206">
-        <v>126</v>
+        <v>88</v>
       </c>
       <c r="L206" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.875</v>
-      </c>
-    </row>
-    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>206</v>
       </c>
@@ -12380,7 +12381,7 @@
         <v>7.1875</v>
       </c>
     </row>
-    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>236</v>
       </c>
@@ -12417,7 +12418,7 @@
         <v>5.8125</v>
       </c>
     </row>
-    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>208</v>
       </c>
@@ -12441,14 +12442,14 @@
         <v>189.5</v>
       </c>
       <c r="K209">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="L209" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>209</v>
       </c>
@@ -12488,7 +12489,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="211" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>210</v>
       </c>
@@ -12525,7 +12526,7 @@
         <v>2.0625</v>
       </c>
     </row>
-    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>211</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="213" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>254</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>213</v>
       </c>
@@ -12636,7 +12637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>214</v>
       </c>
@@ -12666,14 +12667,14 @@
         <v>197.5</v>
       </c>
       <c r="K215">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L215" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>5.625</v>
-      </c>
-    </row>
-    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>215</v>
       </c>
@@ -12710,7 +12711,7 @@
         <v>12.25</v>
       </c>
     </row>
-    <row r="217" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>216</v>
       </c>
@@ -12747,7 +12748,7 @@
         <v>4.1875</v>
       </c>
     </row>
-    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>217</v>
       </c>
@@ -12784,7 +12785,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="219" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>232</v>
       </c>
@@ -12824,7 +12825,7 @@
         <v>5.3125</v>
       </c>
     </row>
-    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>219</v>
       </c>
@@ -12864,7 +12865,7 @@
         <v>8.3125</v>
       </c>
     </row>
-    <row r="221" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>220</v>
       </c>
@@ -12898,7 +12899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>221</v>
       </c>
@@ -12938,7 +12939,7 @@
         <v>8.375</v>
       </c>
     </row>
-    <row r="223" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>222</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v>6.875</v>
       </c>
     </row>
-    <row r="224" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>200</v>
       </c>
@@ -13018,7 +13019,7 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>224</v>
       </c>
@@ -13052,7 +13053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>225</v>
       </c>
@@ -13089,7 +13090,7 @@
         <v>5.8125</v>
       </c>
     </row>
-    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>226</v>
       </c>
@@ -13126,7 +13127,7 @@
         <v>5.875</v>
       </c>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>227</v>
       </c>
@@ -13160,7 +13161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>228</v>
       </c>
@@ -13194,7 +13195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>229</v>
       </c>
@@ -13231,7 +13232,7 @@
         <v>7.9375</v>
       </c>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>230</v>
       </c>
@@ -13260,12 +13261,15 @@
       <c r="J231">
         <v>214.5</v>
       </c>
+      <c r="K231">
+        <v>39</v>
+      </c>
       <c r="L231" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+        <v>2.4375</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>231</v>
       </c>
@@ -13299,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>212</v>
       </c>
@@ -13339,7 +13343,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>233</v>
       </c>
@@ -13376,7 +13380,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>234</v>
       </c>
@@ -13413,7 +13417,7 @@
         <v>11.75</v>
       </c>
     </row>
-    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>235</v>
       </c>
@@ -13450,7 +13454,7 @@
         <v>4.75</v>
       </c>
     </row>
-    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>256</v>
       </c>
@@ -13487,7 +13491,7 @@
         <v>6.0625</v>
       </c>
     </row>
-    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>237</v>
       </c>
@@ -13517,14 +13521,15 @@
         <v>223</v>
       </c>
       <c r="K238">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L238" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>3.8125</v>
-      </c>
-    </row>
-    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>3.5</v>
+      </c>
+      <c r="O238" s="4"/>
+    </row>
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>238</v>
       </c>
@@ -13564,7 +13569,7 @@
         <v>8.125</v>
       </c>
     </row>
-    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>239</v>
       </c>
@@ -13604,7 +13609,7 @@
         <v>7.875</v>
       </c>
     </row>
-    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>223</v>
       </c>
@@ -13644,7 +13649,7 @@
         <v>6.8125</v>
       </c>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>241</v>
       </c>
@@ -13678,7 +13683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>242</v>
       </c>
@@ -13712,7 +13717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>218</v>
       </c>
@@ -13752,7 +13757,7 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>244</v>
       </c>
@@ -13781,12 +13786,15 @@
       <c r="J245">
         <v>229</v>
       </c>
+      <c r="K245">
+        <v>31</v>
+      </c>
       <c r="L245" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>1.9375</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>245</v>
       </c>
@@ -13823,41 +13831,38 @@
         <v>4.5625</v>
       </c>
     </row>
-    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>246</v>
+        <v>285</v>
       </c>
       <c r="B247" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
       <c r="C247" t="s">
-        <v>127</v>
+        <v>22</v>
       </c>
       <c r="D247">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E247" t="str">
         <f>LEFT(F247,IF(LEFT(F247,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F247" t="s">
-        <v>533</v>
-      </c>
-      <c r="H247">
-        <v>208</v>
+        <v>611</v>
       </c>
       <c r="I247">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="J247">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="L247" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>247</v>
       </c>
@@ -13894,7 +13899,7 @@
         <v>7.8125</v>
       </c>
     </row>
-    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>248</v>
       </c>
@@ -13934,7 +13939,7 @@
         <v>8.5625</v>
       </c>
     </row>
-    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>249</v>
       </c>
@@ -13971,7 +13976,7 @@
         <v>2.875</v>
       </c>
     </row>
-    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>250</v>
       </c>
@@ -14008,7 +14013,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>251</v>
       </c>
@@ -14045,7 +14050,7 @@
         <v>7.625</v>
       </c>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>252</v>
       </c>
@@ -14079,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>253</v>
       </c>
@@ -14109,14 +14114,14 @@
         <v>243.5</v>
       </c>
       <c r="K254">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L254" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>7.8125</v>
-      </c>
-    </row>
-    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>243</v>
       </c>
@@ -14156,7 +14161,7 @@
         <v>6.125</v>
       </c>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>255</v>
       </c>
@@ -14185,12 +14190,15 @@
       <c r="J256">
         <v>244</v>
       </c>
+      <c r="K256">
+        <v>68</v>
+      </c>
       <c r="L256" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="257" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>207</v>
       </c>
@@ -14230,41 +14238,41 @@
         <v>6.3125</v>
       </c>
     </row>
-    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="B258" t="s">
-        <v>554</v>
+        <v>532</v>
       </c>
       <c r="C258" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="D258">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E258" t="str">
         <f>LEFT(F258,IF(LEFT(F258,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F258" t="s">
-        <v>555</v>
+        <v>533</v>
       </c>
       <c r="H258">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="I258">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J258">
-        <v>245.5</v>
+        <v>233</v>
       </c>
       <c r="L258" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>258</v>
       </c>
@@ -14298,35 +14306,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B260" t="s">
-        <v>558</v>
+        <v>554</v>
+      </c>
+      <c r="C260" t="s">
+        <v>39</v>
+      </c>
+      <c r="D260">
+        <v>8</v>
       </c>
       <c r="E260" t="str">
         <f>LEFT(F260,IF(LEFT(F260,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F260" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H260">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="I260">
-        <v>294</v>
+        <v>256</v>
       </c>
       <c r="J260">
-        <v>246.5</v>
+        <v>245.5</v>
       </c>
       <c r="L260" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>260</v>
       </c>
@@ -14363,7 +14377,7 @@
         <v>4.4375</v>
       </c>
     </row>
-    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>261</v>
       </c>
@@ -14400,41 +14414,41 @@
         <v>3.9375</v>
       </c>
     </row>
-    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="B263" t="s">
-        <v>564</v>
+        <v>626</v>
       </c>
       <c r="C263" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
       <c r="D263">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E263" t="str">
         <f>LEFT(F263,IF(LEFT(F263,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F263" t="s">
-        <v>565</v>
+        <v>627</v>
       </c>
       <c r="H263">
-        <v>215</v>
-      </c>
-      <c r="I263">
-        <v>286</v>
+        <v>246</v>
       </c>
       <c r="J263">
-        <v>250.5</v>
+        <v>246</v>
+      </c>
+      <c r="K263">
+        <v>70</v>
       </c>
       <c r="L263" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>263</v>
       </c>
@@ -14474,49 +14488,43 @@
         <v>7.5625</v>
       </c>
     </row>
-    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B265" t="s">
-        <v>568</v>
-      </c>
-      <c r="C265" t="s">
-        <v>42</v>
-      </c>
-      <c r="D265">
-        <v>14</v>
+        <v>558</v>
       </c>
       <c r="E265" t="str">
         <f>LEFT(F265,IF(LEFT(F265,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F265" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="H265">
-        <v>256</v>
+        <v>199</v>
       </c>
       <c r="I265">
-        <v>247</v>
+        <v>294</v>
       </c>
       <c r="J265">
-        <v>251.5</v>
+        <v>246.5</v>
       </c>
       <c r="L265" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B266" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C266" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="D266">
         <v>8</v>
@@ -14526,23 +14534,26 @@
         <v>WR</v>
       </c>
       <c r="F266" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="H266">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="I266">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="J266">
-        <v>252</v>
+        <v>250.5</v>
+      </c>
+      <c r="K266">
+        <v>98</v>
       </c>
       <c r="L266" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.125</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>266</v>
       </c>
@@ -14579,109 +14590,112 @@
         <v>5.6875</v>
       </c>
     </row>
-    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B268" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C268" t="s">
-        <v>174</v>
+        <v>42</v>
       </c>
       <c r="D268">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E268" t="str">
         <f>LEFT(F268,IF(LEFT(F268,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F268" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="H268">
-        <v>218</v>
+        <v>256</v>
       </c>
       <c r="I268">
-        <v>290</v>
+        <v>247</v>
       </c>
       <c r="J268">
-        <v>254</v>
+        <v>251.5</v>
+      </c>
+      <c r="K268">
+        <v>82</v>
       </c>
       <c r="L268" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.125</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B269" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="C269" t="s">
-        <v>174</v>
+        <v>48</v>
       </c>
       <c r="D269">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E269" t="str">
         <f>LEFT(F269,IF(LEFT(F269,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F269" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="H269">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="I269">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="J269">
-        <v>255.5</v>
+        <v>252</v>
+      </c>
+      <c r="K269">
+        <v>83</v>
       </c>
       <c r="L269" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>5.1875</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="B270" t="s">
-        <v>578</v>
+        <v>636</v>
       </c>
       <c r="C270" t="s">
-        <v>193</v>
+        <v>16</v>
       </c>
       <c r="D270">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E270" t="str">
         <f>LEFT(F270,IF(LEFT(F270,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F270" t="s">
-        <v>579</v>
-      </c>
-      <c r="H270">
-        <v>269</v>
+        <v>637</v>
       </c>
       <c r="I270">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="J270">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L270" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>279</v>
       </c>
@@ -14718,7 +14732,7 @@
         <v>6.1875</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>271</v>
       </c>
@@ -14752,7 +14766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>272</v>
       </c>
@@ -14789,7 +14803,7 @@
         <v>1.6875</v>
       </c>
     </row>
-    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>273</v>
       </c>
@@ -14823,75 +14837,81 @@
         <v>0.875</v>
       </c>
     </row>
-    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="B275" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="C275" t="s">
-        <v>62</v>
+        <v>174</v>
       </c>
       <c r="D275">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E275" t="str">
         <f>LEFT(F275,IF(LEFT(F275,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F275" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="H275">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="I275">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="J275">
-        <v>262.5</v>
+        <v>254</v>
+      </c>
+      <c r="K275">
+        <v>102</v>
       </c>
       <c r="L275" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B276" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="C276" t="s">
-        <v>54</v>
+        <v>174</v>
       </c>
       <c r="D276">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E276" t="str">
         <f>LEFT(F276,IF(LEFT(F276,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F276" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="H276">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="I276">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="J276">
-        <v>263</v>
+        <v>255.5</v>
+      </c>
+      <c r="K276">
+        <v>49</v>
       </c>
       <c r="L276" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+        <v>3.0625</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>276</v>
       </c>
@@ -14919,41 +14939,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="B278" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
       <c r="C278" t="s">
-        <v>135</v>
+        <v>193</v>
       </c>
       <c r="D278">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E278" t="str">
         <f>LEFT(F278,IF(LEFT(F278,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F278" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
       <c r="H278">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="I278">
-        <v>278</v>
+        <v>243</v>
       </c>
       <c r="J278">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="L278" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>278</v>
       </c>
@@ -14990,7 +15010,7 @@
         <v>3.6875</v>
       </c>
     </row>
-    <row r="280" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>288</v>
       </c>
@@ -15024,7 +15044,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>280</v>
       </c>
@@ -15058,7 +15078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>281</v>
       </c>
@@ -15087,12 +15107,15 @@
       <c r="J282">
         <v>264</v>
       </c>
+      <c r="K282">
+        <v>19</v>
+      </c>
       <c r="L282" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.1875</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>282</v>
       </c>
@@ -15121,12 +15144,15 @@
       <c r="J283">
         <v>264.5</v>
       </c>
+      <c r="K283">
+        <v>22</v>
+      </c>
       <c r="L283" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>283</v>
       </c>
@@ -15160,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>284</v>
       </c>
@@ -15194,38 +15220,38 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="B286" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="C286" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="D286">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E286" t="str">
         <f>LEFT(F286,IF(LEFT(F286,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F286" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="I286">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="J286">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="L286" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>286</v>
       </c>
@@ -15256,41 +15282,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="B288" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
       <c r="C288" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="D288">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E288" t="str">
         <f>LEFT(F288,IF(LEFT(F288,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F288" t="s">
-        <v>615</v>
+        <v>589</v>
       </c>
       <c r="H288">
-        <v>279</v>
+        <v>221</v>
       </c>
       <c r="I288">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="J288">
-        <v>271.5</v>
+        <v>262.5</v>
+      </c>
+      <c r="K288">
+        <v>65</v>
       </c>
       <c r="L288" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+        <v>4.0625</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>270</v>
       </c>
@@ -15327,7 +15356,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>289</v>
       </c>
@@ -15364,7 +15393,7 @@
         <v>5.1875</v>
       </c>
     </row>
-    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>290</v>
       </c>
@@ -15401,7 +15430,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>291</v>
       </c>
@@ -15432,7 +15461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>292</v>
       </c>
@@ -15466,38 +15495,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="B294" t="s">
-        <v>626</v>
+        <v>590</v>
       </c>
       <c r="C294" t="s">
-        <v>122</v>
+        <v>54</v>
       </c>
       <c r="D294">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E294" t="str">
         <f>LEFT(F294,IF(LEFT(F294,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F294" t="s">
-        <v>627</v>
+        <v>591</v>
       </c>
       <c r="H294">
-        <v>246</v>
+        <v>223</v>
+      </c>
+      <c r="I294">
+        <v>303</v>
       </c>
       <c r="J294">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="L294" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>294</v>
       </c>
@@ -15534,7 +15566,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>295</v>
       </c>
@@ -15568,7 +15600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>296</v>
       </c>
@@ -15602,7 +15634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>297</v>
       </c>
@@ -15639,15 +15671,15 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>298</v>
+        <v>277</v>
       </c>
       <c r="B299" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="C299" t="s">
-        <v>16</v>
+        <v>135</v>
       </c>
       <c r="D299">
         <v>5</v>
@@ -15657,28 +15689,31 @@
         <v>WR</v>
       </c>
       <c r="F299" t="s">
-        <v>637</v>
+        <v>595</v>
+      </c>
+      <c r="H299">
+        <v>248</v>
       </c>
       <c r="I299">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="J299">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="L299" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B300" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="C300" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="D300">
         <v>8</v>
@@ -15688,122 +15723,116 @@
         <v>WR</v>
       </c>
       <c r="F300" t="s">
-        <v>639</v>
-      </c>
-      <c r="I300">
-        <v>257</v>
+        <v>649</v>
+      </c>
+      <c r="H300">
+        <v>267</v>
       </c>
       <c r="J300">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="L300" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="B301" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="C301" t="s">
-        <v>113</v>
+        <v>174</v>
       </c>
       <c r="D301">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E301" t="str">
         <f>LEFT(F301,IF(LEFT(F301,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F301" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
       <c r="H301">
-        <v>270</v>
-      </c>
-      <c r="I301">
-        <v>296</v>
+        <v>268</v>
       </c>
       <c r="J301">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L301" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B302" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="C302" t="s">
-        <v>19</v>
+        <v>138</v>
       </c>
       <c r="D302">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E302" t="str">
         <f>LEFT(F302,IF(LEFT(F302,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F302" t="s">
-        <v>643</v>
-      </c>
-      <c r="H302">
-        <v>281</v>
+        <v>653</v>
       </c>
       <c r="I302">
+        <v>269</v>
+      </c>
+      <c r="J302">
+        <v>269</v>
+      </c>
+      <c r="L302" s="1">
+        <f>StatsTable[[#This Row],[PROJ]]/16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A303">
         <v>287</v>
       </c>
-      <c r="J302">
-        <v>284</v>
-      </c>
-      <c r="L302" s="1">
-        <f>StatsTable[[#This Row],[PROJ]]/16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A303">
-        <v>302</v>
-      </c>
       <c r="B303" t="s">
-        <v>644</v>
+        <v>614</v>
       </c>
       <c r="C303" t="s">
-        <v>135</v>
+        <v>10</v>
       </c>
       <c r="D303">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E303" t="str">
         <f>LEFT(F303,IF(LEFT(F303,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F303" t="s">
-        <v>645</v>
+        <v>615</v>
       </c>
       <c r="H303">
+        <v>279</v>
+      </c>
+      <c r="I303">
         <v>264</v>
       </c>
-      <c r="I303">
-        <v>306</v>
-      </c>
       <c r="J303">
-        <v>285</v>
+        <v>271.5</v>
       </c>
       <c r="L303" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>303</v>
       </c>
@@ -15837,100 +15866,106 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B305" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="C305" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="D305">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E305" t="str">
         <f>LEFT(F305,IF(LEFT(F305,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F305" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H305">
-        <v>267</v>
+        <v>270</v>
+      </c>
+      <c r="I305">
+        <v>296</v>
       </c>
       <c r="J305">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="L305" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B306" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="C306" t="s">
-        <v>174</v>
+        <v>28</v>
       </c>
       <c r="D306">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E306" t="str">
         <f>LEFT(F306,IF(LEFT(F306,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F306" t="s">
-        <v>651</v>
+        <v>663</v>
       </c>
       <c r="H306">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="J306">
-        <v>268</v>
+        <v>283</v>
       </c>
       <c r="L306" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B307" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="C307" t="s">
-        <v>138</v>
+        <v>19</v>
       </c>
       <c r="D307">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E307" t="str">
         <f>LEFT(F307,IF(LEFT(F307,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F307" t="s">
-        <v>653</v>
+        <v>643</v>
+      </c>
+      <c r="H307">
+        <v>281</v>
       </c>
       <c r="I307">
-        <v>269</v>
+        <v>287</v>
       </c>
       <c r="J307">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="L307" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>307</v>
       </c>
@@ -15964,7 +15999,7 @@
         <v>1.8125</v>
       </c>
     </row>
-    <row r="309" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>308</v>
       </c>
@@ -15995,7 +16030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>309</v>
       </c>
@@ -16026,7 +16061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>310</v>
       </c>
@@ -16057,38 +16092,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B312" t="s">
-        <v>662</v>
+        <v>644</v>
       </c>
       <c r="C312" t="s">
-        <v>28</v>
+        <v>135</v>
       </c>
       <c r="D312">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E312" t="str">
         <f>LEFT(F312,IF(LEFT(F312,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F312" t="s">
-        <v>663</v>
+        <v>645</v>
       </c>
       <c r="H312">
-        <v>283</v>
+        <v>264</v>
+      </c>
+      <c r="I312">
+        <v>306</v>
       </c>
       <c r="J312">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="L312" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>312</v>
       </c>
@@ -16122,7 +16160,7 @@
         <v>2.25</v>
       </c>
     </row>
-    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>313</v>
       </c>
@@ -16153,7 +16191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>314</v>
       </c>
@@ -16187,7 +16225,7 @@
         <v>6.375</v>
       </c>
     </row>
-    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>315</v>
       </c>
@@ -16218,7 +16256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>316</v>
       </c>
@@ -16252,7 +16290,7 @@
         <v>5.8125</v>
       </c>
     </row>
-    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>317</v>
       </c>
@@ -16289,41 +16327,38 @@
         <v>2.8125</v>
       </c>
     </row>
-    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B319" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="C319" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="D319">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E319" t="str">
         <f>LEFT(F319,IF(LEFT(F319,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F319" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="H319">
-        <v>292</v>
-      </c>
-      <c r="I319">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="J319">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L319" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>319</v>
       </c>
@@ -16357,58 +16392,58 @@
         <v>5.6875</v>
       </c>
     </row>
-    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B321" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="C321" t="s">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="D321">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E321" t="str">
         <f>LEFT(F321,IF(LEFT(F321,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F321" t="s">
-        <v>681</v>
-      </c>
-      <c r="H321">
-        <v>294</v>
+        <v>683</v>
+      </c>
+      <c r="I321">
+        <v>295</v>
       </c>
       <c r="J321">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L321" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B322" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="C322" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="D322">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E322" t="str">
         <f>LEFT(F322,IF(LEFT(F322,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F322" t="s">
-        <v>683</v>
-      </c>
-      <c r="I322">
+        <v>685</v>
+      </c>
+      <c r="H322">
         <v>295</v>
       </c>
       <c r="J322">
@@ -16419,38 +16454,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B323" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
       <c r="C323" t="s">
-        <v>54</v>
+        <v>157</v>
       </c>
       <c r="D323">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E323" t="str">
         <f>LEFT(F323,IF(LEFT(F323,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F323" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="H323">
-        <v>295</v>
+        <v>292</v>
+      </c>
+      <c r="I323">
+        <v>310</v>
       </c>
       <c r="J323">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="L323" s="1">
         <f>StatsTable[[#This Row],[PROJ]]/16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>323</v>
       </c>
@@ -16484,7 +16522,7 @@
         <v>5.625</v>
       </c>
     </row>
-    <row r="325" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>324</v>
       </c>
@@ -16498,7 +16536,7 @@
         <v>8</v>
       </c>
       <c r="E325" t="str">
-        <f t="shared" ref="E323:E332" si="2">LEFT(F325,IF(LEFT(F325,1)="K",1,2))</f>
+        <f>LEFT(F325,IF(LEFT(F325,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F325" t="s">
@@ -16515,7 +16553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>325</v>
       </c>
@@ -16529,7 +16567,7 @@
         <v>11</v>
       </c>
       <c r="E326" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(F326,IF(LEFT(F326,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F326" t="s">
@@ -16546,7 +16584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>326</v>
       </c>
@@ -16560,7 +16598,7 @@
         <v>5</v>
       </c>
       <c r="E327" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(F327,IF(LEFT(F327,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F327" t="s">
@@ -16577,7 +16615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>327</v>
       </c>
@@ -16591,7 +16629,7 @@
         <v>10</v>
       </c>
       <c r="E328" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(F328,IF(LEFT(F328,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F328" t="s">
@@ -16608,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>328</v>
       </c>
@@ -16622,7 +16660,7 @@
         <v>7</v>
       </c>
       <c r="E329" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(F329,IF(LEFT(F329,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F329" t="s">
@@ -16639,7 +16677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>329</v>
       </c>
@@ -16653,7 +16691,7 @@
         <v>7</v>
       </c>
       <c r="E330" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(F330,IF(LEFT(F330,1)="K",1,2))</f>
         <v>WR</v>
       </c>
       <c r="F330" t="s">
@@ -16670,7 +16708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>330</v>
       </c>
@@ -16684,7 +16722,7 @@
         <v>9</v>
       </c>
       <c r="E331" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(F331,IF(LEFT(F331,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F331" t="s">
@@ -16701,7 +16739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>331</v>
       </c>
@@ -16715,7 +16753,7 @@
         <v>10</v>
       </c>
       <c r="E332" t="str">
-        <f t="shared" si="2"/>
+        <f>LEFT(F332,IF(LEFT(F332,1)="K",1,2))</f>
         <v>RB</v>
       </c>
       <c r="F332" t="s">
@@ -16746,7 +16784,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16760,12 +16798,12 @@
       <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>707</v>
       </c>
@@ -16774,7 +16812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" t="str" cm="1">
         <f t="array" ref="A2:B96">_xlfn.LET(
   _xlpm.players, _xlfn._xlws.FILTER(StatsTable[Player], StatsTable[POS]= $A$1),
@@ -16790,7 +16828,7 @@
         <v>PROJ_PPG</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <v>Bijan Robinson</v>
       </c>
@@ -16798,7 +16836,7 @@
         <v>17.9375</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <v>Jahmyr Gibbs</v>
       </c>
@@ -16806,7 +16844,7 @@
         <v>17.75</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <v>Saquon Barkley</v>
       </c>
@@ -16814,39 +16852,39 @@
         <v>17.6875</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
+        <v>Christian McCaffrey</v>
+      </c>
+      <c r="B6">
+        <v>16.3125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
         <v>Derrick Henry</v>
       </c>
-      <c r="B6">
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="str">
-        <v>Christian McCaffrey</v>
-      </c>
       <c r="B7">
-        <v>16.4375</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <v>16.0625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <v>De'Von Achane</v>
       </c>
       <c r="B8">
-        <v>15.625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <v>15.5625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <v>Josh Jacobs</v>
       </c>
       <c r="B9">
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <v>15.3125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <v>Ashton Jeanty</v>
       </c>
@@ -16854,31 +16892,31 @@
         <v>14.8125</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
+        <v>Kyren Williams</v>
+      </c>
+      <c r="B11">
+        <v>14.3125</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
         <v>Jonathan Taylor</v>
       </c>
-      <c r="B11">
-        <v>14.625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A12" t="str">
+      <c r="B12">
+        <v>14.25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
         <v>Bucky Irving</v>
       </c>
-      <c r="B12">
-        <v>14.4375</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <v>Kyren Williams</v>
-      </c>
       <c r="B13">
-        <v>14.3125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <v>Chase Brown</v>
       </c>
@@ -16886,47 +16924,47 @@
         <v>13.6875</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <v>James Cook</v>
       </c>
       <c r="B15">
-        <v>13.625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
+        <v>Alvin Kamara</v>
+      </c>
+      <c r="B16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
         <v>Breece Hall</v>
       </c>
-      <c r="B16">
-        <v>13.1875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="str">
-        <v>Alvin Kamara</v>
-      </c>
       <c r="B17">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.6875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <v>James Conner</v>
       </c>
       <c r="B18">
-        <v>12.9375</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.6875</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <v>Kenneth Walker III</v>
       </c>
       <c r="B19">
-        <v>12.6875</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <v>Omarion Hampton</v>
       </c>
@@ -16934,95 +16972,95 @@
         <v>11.9375</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
+        <v>Chuba Hubbard</v>
+      </c>
+      <c r="B21">
+        <v>11.75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <v>D'Andre Swift</v>
+      </c>
+      <c r="B22">
+        <v>11.5625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
         <v>Aaron Jones Sr.</v>
       </c>
-      <c r="B21">
-        <v>11.9375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <v>Chuba Hubbard</v>
-      </c>
-      <c r="B22">
-        <v>11.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
+      <c r="B23">
+        <v>11.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <v>David Montgomery</v>
+      </c>
+      <c r="B24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <v>Tony Pollard</v>
+      </c>
+      <c r="B25">
+        <v>10.875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <v>TreVeyon Henderson</v>
+      </c>
+      <c r="B26">
+        <v>10.375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <v>Brian Robinson Jr.</v>
+      </c>
+      <c r="B27">
+        <v>10.125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <v>Isiah Pacheco</v>
+      </c>
+      <c r="B28">
+        <v>10.0625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
         <v>Joe Mixon</v>
       </c>
-      <c r="B23">
-        <v>11.6875</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <v>D'Andre Swift</v>
-      </c>
-      <c r="B24">
-        <v>11.5625</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <v>David Montgomery</v>
-      </c>
-      <c r="B25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <v>Tony Pollard</v>
-      </c>
-      <c r="B26">
-        <v>10.875</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <v>TreVeyon Henderson</v>
-      </c>
-      <c r="B27">
-        <v>10.375</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
+      <c r="B29">
+        <v>9.6875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <v>Tyrone Tracy Jr.</v>
+      </c>
+      <c r="B30">
+        <v>9.6875</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
         <v>Kaleb Johnson</v>
       </c>
-      <c r="B28">
-        <v>10.125</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <v>Brian Robinson Jr.</v>
-      </c>
-      <c r="B29">
-        <v>10.125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <v>Isiah Pacheco</v>
-      </c>
-      <c r="B30">
-        <v>10.0625</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
-        <v>Tyrone Tracy Jr.</v>
-      </c>
       <c r="B31">
-        <v>9.9375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+        <v>9.5625</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <v>RJ Harvey</v>
       </c>
@@ -17030,7 +17068,7 @@
         <v>9.0625</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <v>Jaylen Warren</v>
       </c>
@@ -17038,111 +17076,111 @@
         <v>8.9375</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
-        <v>Javonte Williams</v>
+        <v>Austin Ekeler</v>
       </c>
       <c r="B34">
-        <v>8.9375</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <v>J.K. Dobbins</v>
       </c>
       <c r="B35">
-        <v>8.3125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.1875</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
-        <v>Austin Ekeler</v>
+        <v>Javonte Williams</v>
       </c>
       <c r="B36">
-        <v>8.3125</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8.0625</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <v>Travis Etienne Jr.</v>
       </c>
       <c r="B37">
-        <v>8.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
-        <v>Najee Harris</v>
+        <v>Rhamondre Stevenson</v>
       </c>
       <c r="B38">
-        <v>7.9375</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
-        <v>Rhamondre Stevenson</v>
+        <v>Zach Charbonnet</v>
       </c>
       <c r="B39">
-        <v>7.9375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.375</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
-        <v>Cam Skattebo</v>
+        <v>Rachaad White</v>
       </c>
       <c r="B40">
-        <v>7.5625</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <v>Quinshon Judkins</v>
       </c>
       <c r="B41">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.1875</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
-        <v>Rachaad White</v>
+        <v>Tyjae Spears</v>
       </c>
       <c r="B42">
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
-        <v>Zach Charbonnet</v>
+        <v>Jordan Mason</v>
       </c>
       <c r="B43">
-        <v>7.375</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.8125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
-        <v>Tyjae Spears</v>
+        <v>Najee Harris</v>
       </c>
       <c r="B44">
-        <v>7.1875</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
+        <v>Cam Skattebo</v>
+      </c>
+      <c r="B45">
+        <v>6.6875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
         <v>Tank Bigsby</v>
       </c>
-      <c r="B45">
-        <v>6.875</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="str">
-        <v>Jordan Mason</v>
-      </c>
       <c r="B46">
-        <v>6.8125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+        <v>6.4375</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <v>Jerome Ford</v>
       </c>
@@ -17150,263 +17188,263 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
+        <v>Tyler Allgeier</v>
+      </c>
+      <c r="B48">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
         <v>Dylan Sampson</v>
       </c>
-      <c r="B48">
-        <v>5.625</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
+      <c r="B49">
+        <v>5.4375</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <v>Nick Chubb</v>
+      </c>
+      <c r="B50">
+        <v>5.1875</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
         <v>Bhayshul Tuten</v>
       </c>
-      <c r="B49">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="str">
-        <v>Tyler Allgeier</v>
-      </c>
-      <c r="B50">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="str">
-        <v>Rico Dowdle</v>
-      </c>
       <c r="B51">
-        <v>5.375</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
-        <v>Isaac Guerendo</v>
+        <v>Ray Davis</v>
       </c>
       <c r="B52">
-        <v>5.1875</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
-        <v>Nick Chubb</v>
+        <v>Braelon Allen</v>
       </c>
       <c r="B53">
-        <v>5.1875</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <v>Roschon Johnson</v>
       </c>
       <c r="B54">
-        <v>5.125</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.875</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
-        <v>Ray Davis</v>
+        <v>Jaydon Blue</v>
       </c>
       <c r="B55">
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.8125</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
-        <v>Braelon Allen</v>
+        <v>Kareem Hunt</v>
       </c>
       <c r="B56">
-        <v>4.875</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
-        <v>Jaydon Blue</v>
+        <v>Trey Benson</v>
       </c>
       <c r="B57">
-        <v>4.8125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
-        <v>Kareem Hunt</v>
+        <v>Jaylen Wright</v>
       </c>
       <c r="B58">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
-        <v>Trey Benson</v>
+        <v>Justice Hill</v>
       </c>
       <c r="B59">
-        <v>4.375</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
-        <v>Jaylen Wright</v>
+        <v>Raheem Mostert</v>
       </c>
       <c r="B60">
-        <v>4.375</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
-        <v>Justice Hill</v>
+        <v>MarShawn Lloyd</v>
       </c>
       <c r="B61">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+        <v>4.1875</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
-        <v>MarShawn Lloyd</v>
+        <v>Blake Corum</v>
       </c>
       <c r="B62">
-        <v>4.1875</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
-        <v>Blake Corum</v>
+        <v>Rico Dowdle</v>
       </c>
       <c r="B63">
-        <v>4.0625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+        <v>3.3125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
+        <v>Isaac Guerendo</v>
+      </c>
+      <c r="B64">
+        <v>3.1875</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <v>Will Shipley</v>
+      </c>
+      <c r="B65">
+        <v>2.4375</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
         <v>Kyle Monangai</v>
       </c>
-      <c r="B64">
+      <c r="B66">
         <v>2.0625</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="str">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <v>Woody Marks</v>
+      </c>
+      <c r="B67">
+        <v>1.9375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <v>Ollie Gordon II</v>
+      </c>
+      <c r="B68">
+        <v>1.375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <v>Jacory Croskey-Merritt</v>
+      </c>
+      <c r="B69">
+        <v>1.1875</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
         <v>Brashard Smith</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="str">
-        <v>DJ Giddens</v>
-      </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="str">
-        <v>Devin Neal</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="str">
-        <v>Miles Sanders</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="str">
-        <v>Will Shipley</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="str">
-        <v>Jarquez Hunter</v>
       </c>
       <c r="B70">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
-        <v>Jaleel McLaughlin</v>
+        <v>DJ Giddens</v>
       </c>
       <c r="B71">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
-        <v>Woody Marks</v>
+        <v>Devin Neal</v>
       </c>
       <c r="B72">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
-        <v>Elijah Mitchell</v>
+        <v>Miles Sanders</v>
       </c>
       <c r="B73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
-        <v>Raheem Mostert</v>
+        <v>Jarquez Hunter</v>
       </c>
       <c r="B74">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
-        <v>Tahj Brooks</v>
+        <v>Jaleel McLaughlin</v>
       </c>
       <c r="B75">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
-        <v>Jordan James</v>
+        <v>Elijah Mitchell</v>
       </c>
       <c r="B76">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
-        <v>Zack Moss</v>
+        <v>Tahj Brooks</v>
       </c>
       <c r="B77">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
-        <v>Jacory Croskey-Merritt</v>
+        <v>Jordan James</v>
       </c>
       <c r="B78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
-        <v>Ollie Gordon II</v>
+        <v>Zack Moss</v>
       </c>
       <c r="B79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <v>Antonio Gibson</v>
       </c>
@@ -17414,7 +17452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <v>Trevor Etienne</v>
       </c>
@@ -17422,7 +17460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <v>A.J. Dillon</v>
       </c>
@@ -17430,7 +17468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <v>Alexander Mattison</v>
       </c>
@@ -17438,7 +17476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <v>Kendre Miller</v>
       </c>
@@ -17446,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <v>Keaton Mitchell</v>
       </c>
@@ -17454,7 +17492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <v>Devin Singletary</v>
       </c>
@@ -17462,7 +17500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <v>Audric Estime</v>
       </c>
@@ -17470,7 +17508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <v>Sean Tucker</v>
       </c>
@@ -17478,7 +17516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <v>Samaje Perine</v>
       </c>
@@ -17486,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <v>Kenneth Gainwell</v>
       </c>
@@ -17494,7 +17532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <v>Damien Martinez</v>
       </c>
@@ -17502,7 +17540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <v>Khalil Herbert</v>
       </c>
@@ -17510,7 +17548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <v>Emanuel Wilson</v>
       </c>
@@ -17518,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <v>Ty Johnson</v>
       </c>
@@ -17526,7 +17564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <v>Isaiah Davis</v>
       </c>
@@ -17534,7 +17572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <v>Phil Mafah</v>
       </c>
